--- a/base/data_set/account_queue_template.xlsx
+++ b/base/data_set/account_queue_template.xlsx
@@ -486,45 +486,45 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>2866</v>
+        <v>1903</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>5732</v>
+        <v>3806</v>
       </c>
       <c r="D2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>335</v>
+        <v>2362</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>6067</v>
+        <v>6168</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>10452</v>
+        <v>12702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1222</v>
+        <v>1875</v>
       </c>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n">
-        <v>12949</v>
+        <v>8329</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/account_queue_template.xlsx
+++ b/base/data_set/account_queue_template.xlsx
@@ -486,45 +486,45 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1903</v>
+        <v>2290</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3806</v>
+        <v>4580</v>
       </c>
       <c r="D2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2362</v>
+        <v>2386</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>6168</v>
+        <v>6966</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>12702</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1875</v>
+        <v>758</v>
       </c>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n">
-        <v>8329</v>
+        <v>12170</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/account_queue_template.xlsx
+++ b/base/data_set/account_queue_template.xlsx
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>2290</v>
+        <v>1251</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>4580</v>
+        <v>2502</v>
       </c>
       <c r="D2" s="3" t="n"/>
     </row>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2386</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>6966</v>
+        <v>2661</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>9176</v>
+        <v>8771</v>
       </c>
     </row>
     <row r="4">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>758</v>
+        <v>1443</v>
       </c>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n">
-        <v>12170</v>
+        <v>9789</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/account_queue_template.xlsx
+++ b/base/data_set/account_queue_template.xlsx
@@ -490,41 +490,41 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1251</v>
+        <v>352</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>2502</v>
+        <v>704</v>
       </c>
       <c r="D2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>159</v>
+        <v>1808</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2661</v>
+        <v>2512</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>8771</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>April</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1443</v>
+        <v>2354</v>
       </c>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n">
-        <v>9789</v>
+        <v>7299</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/account_queue_template.xlsx
+++ b/base/data_set/account_queue_template.xlsx
@@ -486,45 +486,45 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>704</v>
+        <v>568</v>
       </c>
       <c r="D2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>April</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1808</v>
+        <v>353</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2512</v>
+        <v>921</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>6618</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>2354</v>
+        <v>2053</v>
       </c>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n">
-        <v>7299</v>
+        <v>12333</v>
       </c>
     </row>
   </sheetData>
